--- a/biology/Botanique/Argyranthemum/Argyranthemum.xlsx
+++ b/biology/Botanique/Argyranthemum/Argyranthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyranthemum est un genre de plantes à fleurs appartenant de la famille des Asteraceae, dont certaines espèces sont très cultivées comme plantes d'ornement. C'est l'un des genres de chrysanthèmes.
 Ce sont des plantes annuelles ou vivaces. Le genre compte plusieurs espèces dont le « Chrysanthème frutescent » : Argyranthemum frutescens.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Argyranthemum dissectum (Lowe) Lowe
 Argyranthemum escarrei (Svent.) Humphries
